--- a/APublish/Config/Excel/B_背包.xlsx
+++ b/APublish/Config/Excel/B_背包.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MxPublic\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AmilyServerBase\APublish\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12FF650-68DD-4030-9BB0-6F630E09DA57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21930" windowHeight="10275"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="43200" windowHeight="23070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="背包|ConfigBag" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -71,13 +72,58 @@
   </si>
   <si>
     <t>TypeBag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;List&lt;int&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_0_10|1_0_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListListInt</t>
+  </si>
+  <si>
+    <t>ListInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListListstring</t>
+  </si>
+  <si>
+    <t>Liststring</t>
+  </si>
+  <si>
+    <t>List&lt;List&lt;string&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haa|xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haha_xx|321_dd_ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,74 +213,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -254,7 +232,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -566,14 +544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -582,15 +560,14 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="18.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="5" max="8" width="18.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -603,8 +580,20 @@
       <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -617,8 +606,20 @@
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -631,8 +632,20 @@
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -645,8 +658,20 @@
       <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -659,8 +684,20 @@
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -673,8 +710,20 @@
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -686,6 +735,18 @@
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
